--- a/Jogos_do_Dia/2023-02-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1457,13 +1457,13 @@
         <v>160</v>
       </c>
       <c r="F4">
-        <v>2.35</v>
+        <v>2.91</v>
       </c>
       <c r="G4">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H4">
-        <v>2.6</v>
+        <v>2.29</v>
       </c>
       <c r="I4">
         <v>1.04</v>
@@ -1478,10 +1478,10 @@
         <v>3.6</v>
       </c>
       <c r="M4">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="N4">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>1.36</v>
@@ -1561,13 +1561,13 @@
         <v>161</v>
       </c>
       <c r="F5">
-        <v>2.35</v>
+        <v>2.58</v>
       </c>
       <c r="G5">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="H5">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="I5">
         <v>1.03</v>
@@ -1582,10 +1582,10 @@
         <v>4.33</v>
       </c>
       <c r="M5">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>2.04</v>
       </c>
       <c r="O5">
         <v>1.3</v>
@@ -1665,13 +1665,13 @@
         <v>162</v>
       </c>
       <c r="F6">
-        <v>2.63</v>
+        <v>2.86</v>
       </c>
       <c r="G6">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="H6">
-        <v>2.34</v>
+        <v>2.57</v>
       </c>
       <c r="I6">
         <v>1.05</v>
@@ -1686,10 +1686,10 @@
         <v>2.64</v>
       </c>
       <c r="M6">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="N6">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="O6">
         <v>1.5</v>
@@ -1769,13 +1769,13 @@
         <v>163</v>
       </c>
       <c r="F7">
-        <v>2.75</v>
+        <v>2.97</v>
       </c>
       <c r="G7">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H7">
-        <v>2.33</v>
+        <v>2.28</v>
       </c>
       <c r="I7">
         <v>1.06</v>
@@ -1790,10 +1790,10 @@
         <v>3.3</v>
       </c>
       <c r="M7">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="N7">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="O7">
         <v>1.4</v>
@@ -1873,13 +1873,13 @@
         <v>164</v>
       </c>
       <c r="F8">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="G8">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H8">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I8">
         <v>1.05</v>
@@ -1894,10 +1894,10 @@
         <v>2.94</v>
       </c>
       <c r="M8">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="O8">
         <v>1.44</v>
@@ -1977,13 +1977,13 @@
         <v>165</v>
       </c>
       <c r="F9">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="G9">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="I9">
         <v>1.07</v>
@@ -1998,10 +1998,10 @@
         <v>2.8</v>
       </c>
       <c r="M9">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="N9">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="O9">
         <v>1.5</v>
@@ -2081,13 +2081,13 @@
         <v>166</v>
       </c>
       <c r="F10">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="G10">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="H10">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I10">
         <v>1.04</v>
@@ -2102,10 +2102,10 @@
         <v>3.75</v>
       </c>
       <c r="M10">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="N10">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="O10">
         <v>1.36</v>
@@ -2185,13 +2185,13 @@
         <v>167</v>
       </c>
       <c r="F11">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="G11">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="H11">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="I11">
         <v>1.05</v>
@@ -2206,10 +2206,10 @@
         <v>4.04</v>
       </c>
       <c r="M11">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="O11">
         <v>1.33</v>
@@ -2289,13 +2289,13 @@
         <v>168</v>
       </c>
       <c r="F12">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="G12">
-        <v>3.3</v>
+        <v>3.08</v>
       </c>
       <c r="H12">
-        <v>2.87</v>
+        <v>3.06</v>
       </c>
       <c r="I12">
         <v>1.06</v>
@@ -2310,10 +2310,10 @@
         <v>3.3</v>
       </c>
       <c r="M12">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="N12">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -2352,28 +2352,28 @@
         <v>3.23</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -2393,13 +2393,13 @@
         <v>169</v>
       </c>
       <c r="F13">
-        <v>2.13</v>
+        <v>2.38</v>
       </c>
       <c r="G13">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="I13">
         <v>1.05</v>
@@ -2414,10 +2414,10 @@
         <v>3.75</v>
       </c>
       <c r="M13">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="N13">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="O13">
         <v>1.36</v>
@@ -2497,13 +2497,13 @@
         <v>170</v>
       </c>
       <c r="F14">
-        <v>5.1</v>
+        <v>6.05</v>
       </c>
       <c r="G14">
         <v>4.1</v>
       </c>
       <c r="H14">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="I14">
         <v>1.05</v>
@@ -2518,10 +2518,10 @@
         <v>2.68</v>
       </c>
       <c r="M14">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="O14">
         <v>1.48</v>
@@ -2601,13 +2601,13 @@
         <v>171</v>
       </c>
       <c r="F15">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="G15">
-        <v>3.95</v>
+        <v>4.35</v>
       </c>
       <c r="H15">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I15">
         <v>1.04</v>
@@ -2622,10 +2622,10 @@
         <v>4</v>
       </c>
       <c r="M15">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="O15">
         <v>1.33</v>
@@ -2705,13 +2705,13 @@
         <v>172</v>
       </c>
       <c r="F16">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="G16">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H16">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I16">
         <v>1.05</v>
@@ -2809,13 +2809,13 @@
         <v>173</v>
       </c>
       <c r="F17">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="G17">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="H17">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="I17">
         <v>1.05</v>
@@ -2913,13 +2913,13 @@
         <v>174</v>
       </c>
       <c r="F18">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="G18">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H18">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I18">
         <v>1.03</v>
@@ -2934,10 +2934,10 @@
         <v>3.75</v>
       </c>
       <c r="M18">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="N18">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O18">
         <v>1.33</v>
@@ -3017,13 +3017,13 @@
         <v>175</v>
       </c>
       <c r="F19">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="G19">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="H19">
-        <v>4.75</v>
+        <v>6.22</v>
       </c>
       <c r="I19">
         <v>1.07</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -3225,13 +3225,13 @@
         <v>177</v>
       </c>
       <c r="F21">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="G21">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="H21">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="I21">
         <v>1.03</v>
@@ -3246,10 +3246,10 @@
         <v>4.5</v>
       </c>
       <c r="M21">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="N21">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="O21">
         <v>1.3</v>
@@ -3297,7 +3297,7 @@
         <v>1.39</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE21">
         <v>1.26</v>
@@ -3329,13 +3329,13 @@
         <v>178</v>
       </c>
       <c r="F22">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="G22">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H22">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="I22">
         <v>1.11</v>
@@ -3347,7 +3347,7 @@
         <v>1.5</v>
       </c>
       <c r="L22">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="M22">
         <v>2.4</v>
@@ -3433,13 +3433,13 @@
         <v>179</v>
       </c>
       <c r="F23">
-        <v>2.74</v>
+        <v>2.83</v>
       </c>
       <c r="G23">
-        <v>2.81</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>2.63</v>
+        <v>2.83</v>
       </c>
       <c r="I23">
         <v>1.14</v>
@@ -3448,10 +3448,10 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="L23">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="M23">
         <v>2.51</v>
@@ -3546,16 +3546,16 @@
         <v>3.46</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
         <v>1.81</v>
@@ -3564,10 +3564,10 @@
         <v>2</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q24">
         <v>1.67</v>
@@ -3576,13 +3576,13 @@
         <v>2.1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V24">
         <v>1.2</v>
@@ -3609,10 +3609,10 @@
         <v>2.46</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF24">
         <v>1.63</v>
@@ -3650,16 +3650,16 @@
         <v>3.17</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
         <v>1.74</v>
@@ -3668,10 +3668,10 @@
         <v>2.09</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q25">
         <v>1.62</v>
@@ -3680,13 +3680,13 @@
         <v>2.2</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V25">
         <v>1.9</v>
@@ -3754,16 +3754,16 @@
         <v>2.64</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M26">
         <v>1.73</v>
@@ -3772,25 +3772,25 @@
         <v>2.11</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Q26">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R26">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V26">
         <v>1.1</v>
@@ -3811,16 +3811,16 @@
         <v>2.13</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC26">
         <v>2</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AF26">
         <v>1.61</v>
@@ -3849,13 +3849,13 @@
         <v>183</v>
       </c>
       <c r="F27">
-        <v>2.41</v>
+        <v>2.42</v>
       </c>
       <c r="G27">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H27">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="I27">
         <v>1.04</v>
@@ -3870,10 +3870,10 @@
         <v>4</v>
       </c>
       <c r="M27">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="N27">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="O27">
         <v>1.32</v>
@@ -3953,13 +3953,13 @@
         <v>184</v>
       </c>
       <c r="F28">
-        <v>3.85</v>
+        <v>4.45</v>
       </c>
       <c r="G28">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="I28">
         <v>1.04</v>
@@ -3974,10 +3974,10 @@
         <v>3.67</v>
       </c>
       <c r="M28">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="N28">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O28">
         <v>1.36</v>
@@ -4057,13 +4057,13 @@
         <v>185</v>
       </c>
       <c r="F29">
-        <v>2.27</v>
+        <v>2.41</v>
       </c>
       <c r="G29">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="H29">
-        <v>2.75</v>
+        <v>2.79</v>
       </c>
       <c r="I29">
         <v>1.05</v>
@@ -4078,10 +4078,10 @@
         <v>3.52</v>
       </c>
       <c r="M29">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="N29">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O29">
         <v>1.36</v>
@@ -4161,13 +4161,13 @@
         <v>186</v>
       </c>
       <c r="F30">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="G30">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="H30">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="N30">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -4265,13 +4265,13 @@
         <v>187</v>
       </c>
       <c r="F31">
-        <v>4.55</v>
+        <v>3.8</v>
       </c>
       <c r="G31">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="H31">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4286,10 +4286,10 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="N31">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -4369,13 +4369,13 @@
         <v>188</v>
       </c>
       <c r="F32">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="G32">
         <v>3.5</v>
       </c>
       <c r="H32">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I32">
         <v>1.05</v>
@@ -4390,10 +4390,10 @@
         <v>3.2</v>
       </c>
       <c r="M32">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="N32">
-        <v>2.03</v>
+        <v>1.74</v>
       </c>
       <c r="O32">
         <v>1.44</v>
@@ -4473,52 +4473,52 @@
         <v>189</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V33">
         <v>0.6</v>
@@ -4536,25 +4536,25 @@
         <v>2.79</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -4577,10 +4577,10 @@
         <v>190</v>
       </c>
       <c r="F34">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="G34">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="H34">
         <v>3.1</v>
@@ -4598,10 +4598,10 @@
         <v>3.2</v>
       </c>
       <c r="M34">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="N34">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O34">
         <v>1.44</v>
@@ -4681,13 +4681,13 @@
         <v>191</v>
       </c>
       <c r="F35">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G35">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="H35">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I35">
         <v>1.05</v>
@@ -4702,10 +4702,10 @@
         <v>4.07</v>
       </c>
       <c r="M35">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="N35">
-        <v>2.11</v>
+        <v>2.04</v>
       </c>
       <c r="O35">
         <v>1.33</v>
@@ -4785,13 +4785,13 @@
         <v>192</v>
       </c>
       <c r="F36">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G36">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="H36">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="I36">
         <v>1.06</v>
@@ -4806,10 +4806,10 @@
         <v>3.2</v>
       </c>
       <c r="M36">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="N36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O36">
         <v>1.4</v>
@@ -4889,13 +4889,13 @@
         <v>193</v>
       </c>
       <c r="F37">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G37">
-        <v>3.85</v>
+        <v>4.35</v>
       </c>
       <c r="H37">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I37">
         <v>1.04</v>
@@ -4910,10 +4910,10 @@
         <v>3.78</v>
       </c>
       <c r="M37">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="N37">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O37">
         <v>1.33</v>
@@ -4993,13 +4993,13 @@
         <v>194</v>
       </c>
       <c r="F38">
-        <v>2.3</v>
+        <v>2.89</v>
       </c>
       <c r="G38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H38">
-        <v>2.66</v>
+        <v>2.29</v>
       </c>
       <c r="I38">
         <v>1.06</v>
@@ -5014,10 +5014,10 @@
         <v>3.5</v>
       </c>
       <c r="M38">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="N38">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="O38">
         <v>1.4</v>
@@ -5056,16 +5056,16 @@
         <v>3.59</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE38">
         <v>1.52</v>
@@ -5077,7 +5077,7 @@
         <v>2.32</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="39" spans="1:34">
@@ -5097,13 +5097,13 @@
         <v>195</v>
       </c>
       <c r="F39">
-        <v>2.01</v>
+        <v>1.82</v>
       </c>
       <c r="G39">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H39">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="I39">
         <v>1.06</v>
@@ -5118,10 +5118,10 @@
         <v>3.3</v>
       </c>
       <c r="M39">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="N39">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="O39">
         <v>1.4</v>
@@ -5169,7 +5169,7 @@
         <v>3.36</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE39">
         <v>1.29</v>
@@ -5201,13 +5201,13 @@
         <v>196</v>
       </c>
       <c r="F40">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="G40">
-        <v>3.85</v>
+        <v>4.25</v>
       </c>
       <c r="H40">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I40">
         <v>1.03</v>
@@ -5222,10 +5222,10 @@
         <v>4.33</v>
       </c>
       <c r="M40">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="N40">
-        <v>2.37</v>
+        <v>2.33</v>
       </c>
       <c r="O40">
         <v>1.29</v>
@@ -5273,7 +5273,7 @@
         <v>4.78</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE40">
         <v>1.25</v>
@@ -5305,13 +5305,13 @@
         <v>197</v>
       </c>
       <c r="F41">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="G41">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="H41">
-        <v>11.8</v>
+        <v>10</v>
       </c>
       <c r="I41">
         <v>1.02</v>
@@ -5326,7 +5326,7 @@
         <v>4.75</v>
       </c>
       <c r="M41">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="N41">
         <v>2.4</v>
@@ -5409,13 +5409,13 @@
         <v>198</v>
       </c>
       <c r="F42">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="G42">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H42">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>1.07</v>
@@ -5430,10 +5430,10 @@
         <v>3.1</v>
       </c>
       <c r="M42">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="N42">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O42">
         <v>1.44</v>
@@ -5617,13 +5617,13 @@
         <v>200</v>
       </c>
       <c r="F44">
-        <v>2.23</v>
+        <v>2.42</v>
       </c>
       <c r="G44">
-        <v>3.15</v>
+        <v>3.26</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="I44">
         <v>1.08</v>
@@ -5638,10 +5638,10 @@
         <v>2.95</v>
       </c>
       <c r="M44">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="N44">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="O44">
         <v>1.44</v>
@@ -5680,28 +5680,28 @@
         <v>3.6</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG44">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="45" spans="1:34">
@@ -5721,13 +5721,13 @@
         <v>201</v>
       </c>
       <c r="F45">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="G45">
-        <v>2.95</v>
+        <v>3.35</v>
       </c>
       <c r="H45">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I45">
         <v>1.06</v>
@@ -5742,10 +5742,10 @@
         <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="N45">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="O45">
         <v>1.43</v>
@@ -5805,7 +5805,7 @@
         <v>2.79</v>
       </c>
       <c r="AH45">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="46" spans="1:34">
@@ -5825,13 +5825,13 @@
         <v>202</v>
       </c>
       <c r="F46">
-        <v>2.61</v>
+        <v>2.81</v>
       </c>
       <c r="G46">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="H46">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I46">
         <v>1.03</v>
@@ -5846,10 +5846,10 @@
         <v>4</v>
       </c>
       <c r="M46">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="N46">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="O46">
         <v>1.33</v>
@@ -5929,13 +5929,13 @@
         <v>203</v>
       </c>
       <c r="F47">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="G47">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H47">
-        <v>5.05</v>
+        <v>5.5</v>
       </c>
       <c r="I47">
         <v>1.02</v>
@@ -5950,7 +5950,7 @@
         <v>3.14</v>
       </c>
       <c r="M47">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="N47">
         <v>1.96</v>
@@ -6033,13 +6033,13 @@
         <v>204</v>
       </c>
       <c r="F48">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="G48">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="H48">
-        <v>3.15</v>
+        <v>3.42</v>
       </c>
       <c r="I48">
         <v>1.06</v>
@@ -6054,10 +6054,10 @@
         <v>3.3</v>
       </c>
       <c r="M48">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="N48">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="O48">
         <v>1.4</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG48">
         <v>0</v>
@@ -6137,13 +6137,13 @@
         <v>205</v>
       </c>
       <c r="F49">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="G49">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H49">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I49">
         <v>1.06</v>
@@ -6158,10 +6158,10 @@
         <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="N49">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="O49">
         <v>1.44</v>
@@ -6241,13 +6241,13 @@
         <v>206</v>
       </c>
       <c r="F50">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G50">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="H50">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -6262,10 +6262,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>1.59</v>
+        <v>1.79</v>
       </c>
       <c r="N50">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -6345,13 +6345,13 @@
         <v>207</v>
       </c>
       <c r="F51">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="G51">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H51">
-        <v>2.15</v>
+        <v>1.97</v>
       </c>
       <c r="I51">
         <v>1.05</v>
@@ -6366,10 +6366,10 @@
         <v>2.37</v>
       </c>
       <c r="M51">
-        <v>2.39</v>
+        <v>2.43</v>
       </c>
       <c r="N51">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
         <v>1.51</v>
@@ -6553,10 +6553,10 @@
         <v>209</v>
       </c>
       <c r="F53">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="G53">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="H53">
         <v>3.35</v>
@@ -6568,16 +6568,16 @@
         <v>5</v>
       </c>
       <c r="K53">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="L53">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="M53">
-        <v>2.59</v>
+        <v>2.77</v>
       </c>
       <c r="N53">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="O53">
         <v>1.61</v>
@@ -6657,13 +6657,13 @@
         <v>210</v>
       </c>
       <c r="F54">
-        <v>3.02</v>
+        <v>3.45</v>
       </c>
       <c r="G54">
-        <v>2.97</v>
+        <v>3.3</v>
       </c>
       <c r="H54">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="I54">
         <v>1.09</v>
@@ -6761,13 +6761,13 @@
         <v>211</v>
       </c>
       <c r="F55">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="G55">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H55">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I55">
         <v>1.06</v>
@@ -6782,10 +6782,10 @@
         <v>3.3</v>
       </c>
       <c r="M55">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="N55">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="O55">
         <v>1.4</v>
@@ -6865,13 +6865,13 @@
         <v>212</v>
       </c>
       <c r="F56">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="G56">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="H56">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I56">
         <v>1.02</v>
@@ -6969,13 +6969,13 @@
         <v>213</v>
       </c>
       <c r="F57">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G57">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="H57">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="I57">
         <v>1.03</v>
@@ -6990,10 +6990,10 @@
         <v>4.68</v>
       </c>
       <c r="M57">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="N57">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="O57">
         <v>1.29</v>
@@ -7073,13 +7073,13 @@
         <v>214</v>
       </c>
       <c r="F58">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="G58">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="H58">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I58">
         <v>1.07</v>
@@ -7094,10 +7094,10 @@
         <v>3.1</v>
       </c>
       <c r="M58">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="N58">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="O58">
         <v>1.44</v>
@@ -7177,13 +7177,13 @@
         <v>215</v>
       </c>
       <c r="F59">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="G59">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="H59">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="I59">
         <v>1.02</v>
@@ -7281,13 +7281,13 @@
         <v>216</v>
       </c>
       <c r="F60">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G60">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="H60">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="I60">
         <v>1.01</v>
@@ -7385,13 +7385,13 @@
         <v>217</v>
       </c>
       <c r="F61">
-        <v>1.74</v>
+        <v>1.92</v>
       </c>
       <c r="G61">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="H61">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -7406,10 +7406,10 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="N61">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -7489,52 +7489,52 @@
         <v>218</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V62">
         <v>1</v>
@@ -7552,25 +7552,25 @@
         <v>2.77</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AD62">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE62">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AF62">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AG62">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AH62">
         <v>0</v>
@@ -7593,13 +7593,13 @@
         <v>219</v>
       </c>
       <c r="F63">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G63">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H63">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="I63">
         <v>1.06</v>
@@ -7614,10 +7614,10 @@
         <v>3.41</v>
       </c>
       <c r="M63">
-        <v>2.11</v>
+        <v>2.07</v>
       </c>
       <c r="N63">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O63">
         <v>1.44</v>
@@ -7697,52 +7697,52 @@
         <v>76</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="V64">
         <v>0.5600000000000001</v>
@@ -7760,25 +7760,25 @@
         <v>2.65</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH64">
         <v>0</v>
@@ -7801,13 +7801,13 @@
         <v>220</v>
       </c>
       <c r="F65">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="G65">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="H65">
-        <v>3.54</v>
+        <v>3.65</v>
       </c>
       <c r="I65">
         <v>1.03</v>
@@ -7822,10 +7822,10 @@
         <v>3.3</v>
       </c>
       <c r="M65">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="N65">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="O65">
         <v>1.4</v>
@@ -7905,13 +7905,13 @@
         <v>221</v>
       </c>
       <c r="F66">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G66">
-        <v>3.9</v>
+        <v>3.74</v>
       </c>
       <c r="H66">
-        <v>4.7</v>
+        <v>5.25</v>
       </c>
       <c r="I66">
         <v>1.04</v>
@@ -7926,10 +7926,10 @@
         <v>4</v>
       </c>
       <c r="M66">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="N66">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="O66">
         <v>1.33</v>
@@ -7977,7 +7977,7 @@
         <v>3.25</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE66">
         <v>1.63</v>
@@ -7989,7 +7989,7 @@
         <v>2.5</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="67" spans="1:34">
@@ -8009,13 +8009,13 @@
         <v>222</v>
       </c>
       <c r="F67">
-        <v>2.81</v>
+        <v>2.71</v>
       </c>
       <c r="G67">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="H67">
-        <v>2.34</v>
+        <v>2.49</v>
       </c>
       <c r="I67">
         <v>1.03</v>
@@ -8030,10 +8030,10 @@
         <v>4.2</v>
       </c>
       <c r="M67">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="N67">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="O67">
         <v>1.33</v>
@@ -8113,13 +8113,13 @@
         <v>223</v>
       </c>
       <c r="F68">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="G68">
-        <v>5.42</v>
+        <v>6.5</v>
       </c>
       <c r="H68">
-        <v>9.640000000000001</v>
+        <v>12</v>
       </c>
       <c r="I68">
         <v>1.01</v>
@@ -8217,13 +8217,13 @@
         <v>224</v>
       </c>
       <c r="F69">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="G69">
-        <v>3.45</v>
+        <v>3.38</v>
       </c>
       <c r="H69">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="I69">
         <v>1.06</v>
@@ -8238,10 +8238,10 @@
         <v>3.3</v>
       </c>
       <c r="M69">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="N69">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="O69">
         <v>1.4</v>
@@ -8289,10 +8289,10 @@
         <v>1.83</v>
       </c>
       <c r="AD69">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE69">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF69">
         <v>1.67</v>
@@ -8321,13 +8321,13 @@
         <v>225</v>
       </c>
       <c r="F70">
-        <v>3.95</v>
+        <v>3.68</v>
       </c>
       <c r="G70">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H70">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="I70">
         <v>1.02</v>
@@ -8342,10 +8342,10 @@
         <v>3.9</v>
       </c>
       <c r="M70">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="N70">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="O70">
         <v>1.36</v>
@@ -8425,13 +8425,13 @@
         <v>226</v>
       </c>
       <c r="F71">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="G71">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="H71">
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
       <c r="I71">
         <v>1.06</v>
@@ -8446,10 +8446,10 @@
         <v>3.25</v>
       </c>
       <c r="M71">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="N71">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="O71">
         <v>1.4</v>
@@ -8529,10 +8529,10 @@
         <v>227</v>
       </c>
       <c r="F72">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="G72">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H72">
         <v>4.2</v>
@@ -8550,10 +8550,10 @@
         <v>4.33</v>
       </c>
       <c r="M72">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="N72">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="O72">
         <v>1.33</v>
@@ -8633,13 +8633,13 @@
         <v>228</v>
       </c>
       <c r="F73">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="G73">
         <v>3.3</v>
       </c>
       <c r="H73">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="I73">
         <v>1.09</v>
@@ -8654,7 +8654,7 @@
         <v>2.35</v>
       </c>
       <c r="M73">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N73">
         <v>1.5</v>
@@ -8737,13 +8737,13 @@
         <v>229</v>
       </c>
       <c r="F74">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="G74">
-        <v>2.89</v>
+        <v>3.1</v>
       </c>
       <c r="H74">
-        <v>4.55</v>
+        <v>4.2</v>
       </c>
       <c r="I74">
         <v>1.12</v>
@@ -8758,10 +8758,10 @@
         <v>2.3</v>
       </c>
       <c r="M74">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="N74">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="O74">
         <v>1.61</v>
@@ -8841,13 +8841,13 @@
         <v>230</v>
       </c>
       <c r="F75">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="G75">
-        <v>2.97</v>
+        <v>3.25</v>
       </c>
       <c r="H75">
-        <v>2.54</v>
+        <v>2.87</v>
       </c>
       <c r="I75">
         <v>1.1</v>
@@ -8862,10 +8862,10 @@
         <v>2.65</v>
       </c>
       <c r="M75">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="N75">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="O75">
         <v>1.53</v>
@@ -8945,13 +8945,13 @@
         <v>231</v>
       </c>
       <c r="F76">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="G76">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="H76">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="I76">
         <v>1.04</v>
@@ -8966,10 +8966,10 @@
         <v>2.95</v>
       </c>
       <c r="M76">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="N76">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="O76">
         <v>1.46</v>
@@ -9049,13 +9049,13 @@
         <v>232</v>
       </c>
       <c r="F77">
-        <v>2.71</v>
+        <v>2.69</v>
       </c>
       <c r="G77">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="H77">
-        <v>2.42</v>
+        <v>2.43</v>
       </c>
       <c r="I77">
         <v>1.05</v>
@@ -9070,10 +9070,10 @@
         <v>3.3</v>
       </c>
       <c r="M77">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="N77">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O77">
         <v>1.4</v>
@@ -9153,13 +9153,13 @@
         <v>233</v>
       </c>
       <c r="F78">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="G78">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="H78">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="I78">
         <v>1.14</v>
@@ -9168,16 +9168,16 @@
         <v>6</v>
       </c>
       <c r="K78">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="L78">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="M78">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="N78">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="O78">
         <v>1.62</v>
@@ -9237,7 +9237,7 @@
         <v>3.56</v>
       </c>
       <c r="AH78">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="79" spans="1:34">
@@ -9257,13 +9257,13 @@
         <v>234</v>
       </c>
       <c r="F79">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="G79">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H79">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I79">
         <v>1.02</v>
@@ -9278,10 +9278,10 @@
         <v>4.5</v>
       </c>
       <c r="M79">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="N79">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="O79">
         <v>1.3</v>
@@ -9361,13 +9361,13 @@
         <v>235</v>
       </c>
       <c r="F80">
-        <v>2.11</v>
+        <v>2.23</v>
       </c>
       <c r="G80">
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
       <c r="H80">
-        <v>2.69</v>
+        <v>2.89</v>
       </c>
       <c r="I80">
         <v>1.03</v>
@@ -9382,10 +9382,10 @@
         <v>4.5</v>
       </c>
       <c r="M80">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="N80">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="O80">
         <v>1.29</v>
@@ -9465,13 +9465,13 @@
         <v>236</v>
       </c>
       <c r="F81">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="G81">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H81">
-        <v>2.77</v>
+        <v>2.86</v>
       </c>
       <c r="I81">
         <v>1.01</v>
@@ -9486,10 +9486,10 @@
         <v>3.54</v>
       </c>
       <c r="M81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="N81">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O81">
         <v>1.36</v>
@@ -9569,13 +9569,13 @@
         <v>237</v>
       </c>
       <c r="F82">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G82">
-        <v>5.6</v>
+        <v>7.1</v>
       </c>
       <c r="H82">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="I82">
         <v>1.01</v>
@@ -9673,13 +9673,13 @@
         <v>238</v>
       </c>
       <c r="F83">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="G83">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="H83">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="I83">
         <v>1.11</v>
@@ -9694,10 +9694,10 @@
         <v>2.6</v>
       </c>
       <c r="M83">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="N83">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="O83">
         <v>1.54</v>
@@ -9777,13 +9777,13 @@
         <v>239</v>
       </c>
       <c r="F84">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="G84">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="H84">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="I84">
         <v>1.03</v>
@@ -9798,10 +9798,10 @@
         <v>4.2</v>
       </c>
       <c r="M84">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="N84">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="O84">
         <v>1.33</v>
@@ -10089,13 +10089,13 @@
         <v>242</v>
       </c>
       <c r="F87">
-        <v>2.85</v>
+        <v>3.18</v>
       </c>
       <c r="G87">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="H87">
-        <v>2.38</v>
+        <v>1.87</v>
       </c>
       <c r="I87">
         <v>1.08</v>
@@ -10193,13 +10193,13 @@
         <v>243</v>
       </c>
       <c r="F88">
-        <v>5.25</v>
+        <v>6.3</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H88">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="I88">
         <v>1.03</v>
@@ -10214,10 +10214,10 @@
         <v>3.75</v>
       </c>
       <c r="M88">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="N88">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O88">
         <v>1.36</v>
@@ -10297,13 +10297,13 @@
         <v>244</v>
       </c>
       <c r="F89">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="G89">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H89">
-        <v>3.25</v>
+        <v>3.34</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -10505,13 +10505,13 @@
         <v>246</v>
       </c>
       <c r="F91">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G91">
-        <v>3.75</v>
+        <v>3.94</v>
       </c>
       <c r="H91">
-        <v>4.1</v>
+        <v>4.52</v>
       </c>
       <c r="I91">
         <v>1.04</v>
@@ -10526,10 +10526,10 @@
         <v>3.6</v>
       </c>
       <c r="M91">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="N91">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="O91">
         <v>1.37</v>
@@ -10713,13 +10713,13 @@
         <v>248</v>
       </c>
       <c r="F93">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>4.55</v>
       </c>
       <c r="H93">
-        <v>7</v>
+        <v>7.15</v>
       </c>
       <c r="I93">
         <v>0</v>

--- a/Jogos_do_Dia/2023-02-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1297,10 +1297,10 @@
         <v>1.75</v>
       </c>
       <c r="V2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2">
         <v>1.26</v>
@@ -1401,7 +1401,7 @@
         <v>1.33</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1457,13 +1457,13 @@
         <v>160</v>
       </c>
       <c r="F4">
-        <v>2.91</v>
+        <v>2.39</v>
       </c>
       <c r="G4">
-        <v>3.7</v>
+        <v>3.23</v>
       </c>
       <c r="H4">
-        <v>2.29</v>
+        <v>2.69</v>
       </c>
       <c r="I4">
         <v>1.04</v>
@@ -1478,10 +1478,10 @@
         <v>3.6</v>
       </c>
       <c r="M4">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="O4">
         <v>1.36</v>
@@ -1505,10 +1505,10 @@
         <v>1.4</v>
       </c>
       <c r="V4">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="X4">
         <v>1.49</v>
@@ -1561,13 +1561,13 @@
         <v>161</v>
       </c>
       <c r="F5">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="G5">
-        <v>3.85</v>
+        <v>3.36</v>
       </c>
       <c r="H5">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="I5">
         <v>1.03</v>
@@ -1582,10 +1582,10 @@
         <v>4.33</v>
       </c>
       <c r="M5">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="N5">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="O5">
         <v>1.3</v>
@@ -1609,10 +1609,10 @@
         <v>1.47</v>
       </c>
       <c r="V5">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="W5">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="X5">
         <v>1.49</v>
@@ -1665,13 +1665,13 @@
         <v>162</v>
       </c>
       <c r="F6">
-        <v>2.86</v>
+        <v>2.66</v>
       </c>
       <c r="G6">
-        <v>3.14</v>
+        <v>3.25</v>
       </c>
       <c r="H6">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="I6">
         <v>1.05</v>
@@ -1686,10 +1686,10 @@
         <v>2.64</v>
       </c>
       <c r="M6">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="N6">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="O6">
         <v>1.5</v>
@@ -1713,10 +1713,10 @@
         <v>1.35</v>
       </c>
       <c r="V6">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X6">
         <v>1.48</v>
@@ -1769,13 +1769,13 @@
         <v>163</v>
       </c>
       <c r="F7">
-        <v>2.97</v>
+        <v>2.64</v>
       </c>
       <c r="G7">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H7">
-        <v>2.28</v>
+        <v>2.39</v>
       </c>
       <c r="I7">
         <v>1.06</v>
@@ -1790,10 +1790,10 @@
         <v>3.3</v>
       </c>
       <c r="M7">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="N7">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
         <v>1.4</v>
@@ -1817,10 +1817,10 @@
         <v>1.49</v>
       </c>
       <c r="V7">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X7">
         <v>1.75</v>
@@ -1873,13 +1873,13 @@
         <v>164</v>
       </c>
       <c r="F8">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="G8">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H8">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I8">
         <v>1.05</v>
@@ -1894,10 +1894,10 @@
         <v>2.94</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="N8">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="O8">
         <v>1.44</v>
@@ -1921,10 +1921,10 @@
         <v>1.75</v>
       </c>
       <c r="V8">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X8">
         <v>1.59</v>
@@ -1977,13 +1977,13 @@
         <v>165</v>
       </c>
       <c r="F9">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="G9">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="I9">
         <v>1.07</v>
@@ -1998,10 +1998,10 @@
         <v>2.8</v>
       </c>
       <c r="M9">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="N9">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="O9">
         <v>1.5</v>
@@ -2025,10 +2025,10 @@
         <v>1.55</v>
       </c>
       <c r="V9">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="W9">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="X9">
         <v>1.91</v>
@@ -2081,13 +2081,13 @@
         <v>166</v>
       </c>
       <c r="F10">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="G10">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="H10">
-        <v>3.45</v>
+        <v>3.61</v>
       </c>
       <c r="I10">
         <v>1.04</v>
@@ -2102,10 +2102,10 @@
         <v>3.75</v>
       </c>
       <c r="M10">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="N10">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="O10">
         <v>1.36</v>
@@ -2129,10 +2129,10 @@
         <v>1.75</v>
       </c>
       <c r="V10">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W10">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="X10">
         <v>1.88</v>
@@ -2185,13 +2185,13 @@
         <v>167</v>
       </c>
       <c r="F11">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="G11">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H11">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="I11">
         <v>1.05</v>
@@ -2206,10 +2206,10 @@
         <v>4.04</v>
       </c>
       <c r="M11">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="N11">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O11">
         <v>1.33</v>
@@ -2233,10 +2233,10 @@
         <v>1.36</v>
       </c>
       <c r="V11">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="X11">
         <v>1.71</v>
@@ -2289,13 +2289,13 @@
         <v>168</v>
       </c>
       <c r="F12">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="G12">
-        <v>3.08</v>
+        <v>3.25</v>
       </c>
       <c r="H12">
-        <v>3.06</v>
+        <v>2.86</v>
       </c>
       <c r="I12">
         <v>1.06</v>
@@ -2310,10 +2310,10 @@
         <v>3.3</v>
       </c>
       <c r="M12">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="N12">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -2337,10 +2337,10 @@
         <v>1.5</v>
       </c>
       <c r="V12">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="W12">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="X12">
         <v>1.76</v>
@@ -2393,13 +2393,13 @@
         <v>169</v>
       </c>
       <c r="F13">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="G13">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H13">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="I13">
         <v>1.05</v>
@@ -2414,10 +2414,10 @@
         <v>3.75</v>
       </c>
       <c r="M13">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="N13">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="O13">
         <v>1.36</v>
@@ -2441,10 +2441,10 @@
         <v>1.46</v>
       </c>
       <c r="V13">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="W13">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="X13">
         <v>1.66</v>
@@ -2497,10 +2497,10 @@
         <v>170</v>
       </c>
       <c r="F14">
-        <v>6.05</v>
+        <v>5.28</v>
       </c>
       <c r="G14">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H14">
         <v>1.55</v>
@@ -2518,10 +2518,10 @@
         <v>2.68</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="N14">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="O14">
         <v>1.48</v>
@@ -2545,10 +2545,10 @@
         <v>1.14</v>
       </c>
       <c r="V14">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="W14">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="X14">
         <v>1.32</v>
@@ -2601,13 +2601,13 @@
         <v>171</v>
       </c>
       <c r="F15">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="G15">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="H15">
-        <v>5.1</v>
+        <v>6.41</v>
       </c>
       <c r="I15">
         <v>1.04</v>
@@ -2622,10 +2622,10 @@
         <v>4</v>
       </c>
       <c r="M15">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="N15">
-        <v>2.14</v>
+        <v>2.09</v>
       </c>
       <c r="O15">
         <v>1.33</v>
@@ -2649,10 +2649,10 @@
         <v>2.37</v>
       </c>
       <c r="V15">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="W15">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="X15">
         <v>1.72</v>
@@ -2705,13 +2705,13 @@
         <v>172</v>
       </c>
       <c r="F16">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="G16">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="H16">
-        <v>2.9</v>
+        <v>3.68</v>
       </c>
       <c r="I16">
         <v>1.05</v>
@@ -2726,10 +2726,10 @@
         <v>3.5</v>
       </c>
       <c r="M16">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="N16">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="O16">
         <v>1.36</v>
@@ -2753,10 +2753,10 @@
         <v>1.7</v>
       </c>
       <c r="V16">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="X16">
         <v>2.11</v>
@@ -2809,13 +2809,13 @@
         <v>173</v>
       </c>
       <c r="F17">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="G17">
-        <v>4.25</v>
+        <v>3.95</v>
       </c>
       <c r="H17">
-        <v>4.7</v>
+        <v>5.99</v>
       </c>
       <c r="I17">
         <v>1.05</v>
@@ -2830,10 +2830,10 @@
         <v>3.6</v>
       </c>
       <c r="M17">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N17">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="O17">
         <v>1.36</v>
@@ -2857,10 +2857,10 @@
         <v>2.25</v>
       </c>
       <c r="V17">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="W17">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="X17">
         <v>1.85</v>
@@ -2913,13 +2913,13 @@
         <v>174</v>
       </c>
       <c r="F18">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="G18">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H18">
-        <v>3.65</v>
+        <v>3.61</v>
       </c>
       <c r="I18">
         <v>1.03</v>
@@ -2934,10 +2934,10 @@
         <v>3.75</v>
       </c>
       <c r="M18">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="N18">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="O18">
         <v>1.33</v>
@@ -2961,10 +2961,10 @@
         <v>1.8</v>
       </c>
       <c r="V18">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="W18">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="X18">
         <v>2.05</v>
@@ -3017,13 +3017,13 @@
         <v>175</v>
       </c>
       <c r="F19">
-        <v>1.35</v>
+        <v>1.85</v>
       </c>
       <c r="G19">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="H19">
-        <v>6.22</v>
+        <v>3.98</v>
       </c>
       <c r="I19">
         <v>1.07</v>
@@ -3038,7 +3038,7 @@
         <v>2.87</v>
       </c>
       <c r="M19">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="N19">
         <v>1.68</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -3121,13 +3121,13 @@
         <v>176</v>
       </c>
       <c r="F20">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="G20">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="H20">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I20">
         <v>1.06</v>
@@ -3142,10 +3142,10 @@
         <v>3.2</v>
       </c>
       <c r="M20">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="N20">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="O20">
         <v>1.43</v>
@@ -3169,10 +3169,10 @@
         <v>1.62</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="W20">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X20">
         <v>1.44</v>
@@ -3225,13 +3225,13 @@
         <v>177</v>
       </c>
       <c r="F21">
-        <v>4.3</v>
+        <v>4.98</v>
       </c>
       <c r="G21">
         <v>4.05</v>
       </c>
       <c r="H21">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="I21">
         <v>1.03</v>
@@ -3246,10 +3246,10 @@
         <v>4.5</v>
       </c>
       <c r="M21">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="N21">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
       <c r="O21">
         <v>1.3</v>
@@ -3273,10 +3273,10 @@
         <v>1.16</v>
       </c>
       <c r="V21">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="W21">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="X21">
         <v>1.3</v>
@@ -3329,13 +3329,13 @@
         <v>178</v>
       </c>
       <c r="F22">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G22">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H22">
-        <v>4.15</v>
+        <v>4.48</v>
       </c>
       <c r="I22">
         <v>1.11</v>
@@ -3344,16 +3344,16 @@
         <v>6.5</v>
       </c>
       <c r="K22">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L22">
         <v>2.5</v>
       </c>
       <c r="M22">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="N22">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O22">
         <v>1.55</v>
@@ -3377,10 +3377,10 @@
         <v>1.83</v>
       </c>
       <c r="V22">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="W22">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="X22">
         <v>1.53</v>
@@ -3433,10 +3433,10 @@
         <v>179</v>
       </c>
       <c r="F23">
-        <v>2.83</v>
+        <v>2.9</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H23">
         <v>2.83</v>
@@ -3448,16 +3448,16 @@
         <v>6</v>
       </c>
       <c r="K23">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="L23">
-        <v>2.44</v>
+        <v>2.25</v>
       </c>
       <c r="M23">
-        <v>2.51</v>
+        <v>2.94</v>
       </c>
       <c r="N23">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="O23">
         <v>1.67</v>
@@ -3481,10 +3481,10 @@
         <v>1.41</v>
       </c>
       <c r="V23">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="W23">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="X23">
         <v>1.18</v>
@@ -3537,13 +3537,13 @@
         <v>180</v>
       </c>
       <c r="F24">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="G24">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H24">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="I24">
         <v>1.05</v>
@@ -3558,7 +3558,7 @@
         <v>3.75</v>
       </c>
       <c r="M24">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -3585,10 +3585,10 @@
         <v>1.7</v>
       </c>
       <c r="V24">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="W24">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="X24">
         <v>1.47</v>
@@ -3615,7 +3615,7 @@
         <v>1.32</v>
       </c>
       <c r="AF24">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="AG24">
         <v>2</v>
@@ -3641,13 +3641,13 @@
         <v>181</v>
       </c>
       <c r="F25">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="G25">
-        <v>3.62</v>
+        <v>3.5</v>
       </c>
       <c r="H25">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="I25">
         <v>1.05</v>
@@ -3662,10 +3662,10 @@
         <v>3.75</v>
       </c>
       <c r="M25">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="N25">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="O25">
         <v>1.33</v>
@@ -3674,10 +3674,10 @@
         <v>3.25</v>
       </c>
       <c r="Q25">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R25">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S25">
         <v>1.36</v>
@@ -3689,10 +3689,10 @@
         <v>1.62</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="W25">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="X25">
         <v>1.83</v>
@@ -3704,28 +3704,28 @@
         <v>3.25</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="26" spans="1:34">
@@ -3745,13 +3745,13 @@
         <v>182</v>
       </c>
       <c r="F26">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="G26">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H26">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I26">
         <v>1.04</v>
@@ -3766,10 +3766,10 @@
         <v>4</v>
       </c>
       <c r="M26">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="N26">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="O26">
         <v>1.33</v>
@@ -3793,10 +3793,10 @@
         <v>1.5</v>
       </c>
       <c r="V26">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="X26">
         <v>1.94</v>
@@ -3823,7 +3823,7 @@
         <v>1.29</v>
       </c>
       <c r="AF26">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="AG26">
         <v>1.98</v>
@@ -3849,13 +3849,13 @@
         <v>183</v>
       </c>
       <c r="F27">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="G27">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H27">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="I27">
         <v>1.04</v>
@@ -3870,10 +3870,10 @@
         <v>4</v>
       </c>
       <c r="M27">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="N27">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="O27">
         <v>1.32</v>
@@ -3897,10 +3897,10 @@
         <v>1.53</v>
       </c>
       <c r="V27">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W27">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="X27">
         <v>1.63</v>
@@ -3953,13 +3953,13 @@
         <v>184</v>
       </c>
       <c r="F28">
-        <v>4.45</v>
+        <v>4.61</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H28">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="I28">
         <v>1.04</v>
@@ -3974,10 +3974,10 @@
         <v>3.67</v>
       </c>
       <c r="M28">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O28">
         <v>1.36</v>
@@ -4001,10 +4001,10 @@
         <v>1.19</v>
       </c>
       <c r="V28">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="W28">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="X28">
         <v>1.67</v>
@@ -4057,13 +4057,13 @@
         <v>185</v>
       </c>
       <c r="F29">
-        <v>2.41</v>
+        <v>2.43</v>
       </c>
       <c r="G29">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H29">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="I29">
         <v>1.05</v>
@@ -4078,7 +4078,7 @@
         <v>3.52</v>
       </c>
       <c r="M29">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="N29">
         <v>1.91</v>
@@ -4105,10 +4105,10 @@
         <v>1.53</v>
       </c>
       <c r="V29">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="W29">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X29">
         <v>1.76</v>
@@ -4161,13 +4161,13 @@
         <v>186</v>
       </c>
       <c r="F30">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="G30">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H30">
-        <v>3.1</v>
+        <v>3.41</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="N30">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -4209,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="V30">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="X30">
         <v>1.07</v>
@@ -4265,13 +4265,13 @@
         <v>187</v>
       </c>
       <c r="F31">
-        <v>3.8</v>
+        <v>4.54</v>
       </c>
       <c r="G31">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H31">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>1.61</v>
       </c>
       <c r="N31">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -4313,10 +4313,10 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="W31">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="X31">
         <v>1.13</v>
@@ -4369,13 +4369,13 @@
         <v>188</v>
       </c>
       <c r="F32">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="G32">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H32">
-        <v>3.35</v>
+        <v>3.57</v>
       </c>
       <c r="I32">
         <v>1.05</v>
@@ -4390,7 +4390,7 @@
         <v>3.2</v>
       </c>
       <c r="M32">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="N32">
         <v>1.74</v>
@@ -4417,10 +4417,10 @@
         <v>1.73</v>
       </c>
       <c r="V32">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="W32">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="X32">
         <v>1.85</v>
@@ -4473,7 +4473,7 @@
         <v>189</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="G33">
         <v>3.2</v>
@@ -4494,10 +4494,10 @@
         <v>3</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="N33">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O33">
         <v>1.4</v>
@@ -4506,10 +4506,10 @@
         <v>2.75</v>
       </c>
       <c r="Q33">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R33">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S33">
         <v>1.51</v>
@@ -4521,10 +4521,10 @@
         <v>1.31</v>
       </c>
       <c r="V33">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="W33">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="X33">
         <v>1.32</v>
@@ -4536,13 +4536,13 @@
         <v>2.79</v>
       </c>
       <c r="AA33">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="AB33">
         <v>7.4</v>
       </c>
       <c r="AC33">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="AD33">
         <v>1.36</v>
@@ -4557,7 +4557,7 @@
         <v>2.79</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="34" spans="1:34">
@@ -4577,13 +4577,13 @@
         <v>190</v>
       </c>
       <c r="F34">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="G34">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="H34">
-        <v>3.1</v>
+        <v>3.16</v>
       </c>
       <c r="I34">
         <v>1.06</v>
@@ -4598,10 +4598,10 @@
         <v>3.2</v>
       </c>
       <c r="M34">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="N34">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="O34">
         <v>1.44</v>
@@ -4625,10 +4625,10 @@
         <v>1.6</v>
       </c>
       <c r="V34">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="W34">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="X34">
         <v>1.36</v>
@@ -4681,13 +4681,13 @@
         <v>191</v>
       </c>
       <c r="F35">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="G35">
         <v>4.4</v>
       </c>
       <c r="H35">
-        <v>5.8</v>
+        <v>6.39</v>
       </c>
       <c r="I35">
         <v>1.05</v>
@@ -4702,10 +4702,10 @@
         <v>4.07</v>
       </c>
       <c r="M35">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="N35">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="O35">
         <v>1.33</v>
@@ -4729,10 +4729,10 @@
         <v>2.55</v>
       </c>
       <c r="V35">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="X35">
         <v>1.95</v>
@@ -4785,13 +4785,13 @@
         <v>192</v>
       </c>
       <c r="F36">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="G36">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H36">
-        <v>2.87</v>
+        <v>3.01</v>
       </c>
       <c r="I36">
         <v>1.06</v>
@@ -4806,10 +4806,10 @@
         <v>3.2</v>
       </c>
       <c r="M36">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="O36">
         <v>1.4</v>
@@ -4833,10 +4833,10 @@
         <v>1.55</v>
       </c>
       <c r="V36">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="W36">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="X36">
         <v>1.39</v>
@@ -4889,13 +4889,13 @@
         <v>193</v>
       </c>
       <c r="F37">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="G37">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="H37">
-        <v>5.4</v>
+        <v>5.78</v>
       </c>
       <c r="I37">
         <v>1.04</v>
@@ -4910,10 +4910,10 @@
         <v>3.78</v>
       </c>
       <c r="M37">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="N37">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="O37">
         <v>1.33</v>
@@ -4937,10 +4937,10 @@
         <v>2.45</v>
       </c>
       <c r="V37">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="W37">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="X37">
         <v>1.96</v>
@@ -4996,10 +4996,10 @@
         <v>2.89</v>
       </c>
       <c r="G38">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H38">
-        <v>2.29</v>
+        <v>2.24</v>
       </c>
       <c r="I38">
         <v>1.06</v>
@@ -5014,10 +5014,10 @@
         <v>3.5</v>
       </c>
       <c r="M38">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="N38">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="O38">
         <v>1.4</v>
@@ -5041,10 +5041,10 @@
         <v>1.5</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="W38">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="X38">
         <v>1.8</v>
@@ -5097,13 +5097,13 @@
         <v>195</v>
       </c>
       <c r="F39">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="G39">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H39">
-        <v>3.65</v>
+        <v>4.27</v>
       </c>
       <c r="I39">
         <v>1.06</v>
@@ -5118,7 +5118,7 @@
         <v>3.3</v>
       </c>
       <c r="M39">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="N39">
         <v>1.81</v>
@@ -5145,10 +5145,10 @@
         <v>1.93</v>
       </c>
       <c r="V39">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="W39">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X39">
         <v>1.61</v>
@@ -5201,13 +5201,13 @@
         <v>196</v>
       </c>
       <c r="F40">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="G40">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>6.04</v>
       </c>
       <c r="I40">
         <v>1.03</v>
@@ -5222,10 +5222,10 @@
         <v>4.33</v>
       </c>
       <c r="M40">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="N40">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="O40">
         <v>1.29</v>
@@ -5249,10 +5249,10 @@
         <v>2.7</v>
       </c>
       <c r="V40">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="W40">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="X40">
         <v>1.59</v>
@@ -5305,13 +5305,13 @@
         <v>197</v>
       </c>
       <c r="F41">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="G41">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="H41">
-        <v>10</v>
+        <v>14.63</v>
       </c>
       <c r="I41">
         <v>1.02</v>
@@ -5326,10 +5326,10 @@
         <v>4.75</v>
       </c>
       <c r="M41">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="N41">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O41">
         <v>1.25</v>
@@ -5353,10 +5353,10 @@
         <v>4.6</v>
       </c>
       <c r="V41">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="W41">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X41">
         <v>1.87</v>
@@ -5409,13 +5409,13 @@
         <v>198</v>
       </c>
       <c r="F42">
-        <v>2.31</v>
+        <v>2.2</v>
       </c>
       <c r="G42">
         <v>3.3</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>3.36</v>
       </c>
       <c r="I42">
         <v>1.07</v>
@@ -5430,10 +5430,10 @@
         <v>3.1</v>
       </c>
       <c r="M42">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="N42">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="O42">
         <v>1.44</v>
@@ -5457,10 +5457,10 @@
         <v>1.65</v>
       </c>
       <c r="V42">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="W42">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="X42">
         <v>1.54</v>
@@ -5561,10 +5561,10 @@
         <v>1.24</v>
       </c>
       <c r="V43">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W43">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="X43">
         <v>1.6</v>
@@ -5617,13 +5617,13 @@
         <v>200</v>
       </c>
       <c r="F44">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="G44">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="H44">
-        <v>2.86</v>
+        <v>3.01</v>
       </c>
       <c r="I44">
         <v>1.08</v>
@@ -5638,10 +5638,10 @@
         <v>2.95</v>
       </c>
       <c r="M44">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="N44">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O44">
         <v>1.44</v>
@@ -5665,10 +5665,10 @@
         <v>1.68</v>
       </c>
       <c r="V44">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W44">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X44">
         <v>2.03</v>
@@ -5721,10 +5721,10 @@
         <v>201</v>
       </c>
       <c r="F45">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G45">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="H45">
         <v>3.15</v>
@@ -5742,10 +5742,10 @@
         <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="N45">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="O45">
         <v>1.43</v>
@@ -5769,10 +5769,10 @@
         <v>1.63</v>
       </c>
       <c r="V45">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="W45">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="X45">
         <v>1.3</v>
@@ -5825,10 +5825,10 @@
         <v>202</v>
       </c>
       <c r="F46">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="G46">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H46">
         <v>2.4</v>
@@ -5846,10 +5846,10 @@
         <v>4</v>
       </c>
       <c r="M46">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="N46">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="O46">
         <v>1.33</v>
@@ -5873,10 +5873,10 @@
         <v>1.42</v>
       </c>
       <c r="V46">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="W46">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="X46">
         <v>1.43</v>
@@ -5929,13 +5929,13 @@
         <v>203</v>
       </c>
       <c r="F47">
-        <v>1.59</v>
+        <v>1.42</v>
       </c>
       <c r="G47">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H47">
-        <v>5.5</v>
+        <v>6.63</v>
       </c>
       <c r="I47">
         <v>1.02</v>
@@ -5950,10 +5950,10 @@
         <v>3.14</v>
       </c>
       <c r="M47">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="N47">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="O47">
         <v>1.41</v>
@@ -5977,10 +5977,10 @@
         <v>2.22</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="X47">
         <v>1.61</v>
@@ -5992,25 +5992,25 @@
         <v>2.89</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE47">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH47">
         <v>0</v>
@@ -6033,13 +6033,13 @@
         <v>204</v>
       </c>
       <c r="F48">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="G48">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="H48">
-        <v>3.42</v>
+        <v>3.32</v>
       </c>
       <c r="I48">
         <v>1.06</v>
@@ -6054,10 +6054,10 @@
         <v>3.3</v>
       </c>
       <c r="M48">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="N48">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O48">
         <v>1.4</v>
@@ -6081,10 +6081,10 @@
         <v>1.8</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="X48">
         <v>1.68</v>
@@ -6137,13 +6137,13 @@
         <v>205</v>
       </c>
       <c r="F49">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="G49">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H49">
-        <v>3.65</v>
+        <v>4.04</v>
       </c>
       <c r="I49">
         <v>1.06</v>
@@ -6158,10 +6158,10 @@
         <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="N49">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="O49">
         <v>1.44</v>
@@ -6185,10 +6185,10 @@
         <v>1.85</v>
       </c>
       <c r="V49">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="W49">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="X49">
         <v>1.67</v>
@@ -6241,13 +6241,13 @@
         <v>206</v>
       </c>
       <c r="F50">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="G50">
-        <v>3.48</v>
+        <v>3.3</v>
       </c>
       <c r="H50">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="N50">
         <v>2.02</v>
@@ -6289,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="V50">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="W50">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="X50">
         <v>1.17</v>
@@ -6345,13 +6345,13 @@
         <v>207</v>
       </c>
       <c r="F51">
-        <v>3.7</v>
+        <v>4.38</v>
       </c>
       <c r="G51">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H51">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="I51">
         <v>1.05</v>
@@ -6363,13 +6363,13 @@
         <v>1.5</v>
       </c>
       <c r="L51">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="M51">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="N51">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O51">
         <v>1.51</v>
@@ -6393,10 +6393,10 @@
         <v>1.18</v>
       </c>
       <c r="V51">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W51">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="X51">
         <v>1.5</v>
@@ -6553,13 +6553,13 @@
         <v>209</v>
       </c>
       <c r="F53">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="G53">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="H53">
-        <v>3.35</v>
+        <v>3.63</v>
       </c>
       <c r="I53">
         <v>1.14</v>
@@ -6568,10 +6568,10 @@
         <v>5</v>
       </c>
       <c r="K53">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="L53">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="M53">
         <v>2.77</v>
@@ -6601,10 +6601,10 @@
         <v>1.7</v>
       </c>
       <c r="V53">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="W53">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="X53">
         <v>1.2</v>
@@ -6657,13 +6657,13 @@
         <v>210</v>
       </c>
       <c r="F54">
-        <v>3.45</v>
+        <v>3.57</v>
       </c>
       <c r="G54">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H54">
-        <v>2.23</v>
+        <v>2.21</v>
       </c>
       <c r="I54">
         <v>1.09</v>
@@ -6672,16 +6672,16 @@
         <v>7.5</v>
       </c>
       <c r="K54">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L54">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M54">
-        <v>2.27</v>
+        <v>2.43</v>
       </c>
       <c r="N54">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="O54">
         <v>1.53</v>
@@ -6705,10 +6705,10 @@
         <v>1.3</v>
       </c>
       <c r="V54">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W54">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="X54">
         <v>1.66</v>
@@ -6761,13 +6761,13 @@
         <v>211</v>
       </c>
       <c r="F55">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="G55">
-        <v>4.1</v>
+        <v>4.14</v>
       </c>
       <c r="H55">
-        <v>5.7</v>
+        <v>5.95</v>
       </c>
       <c r="I55">
         <v>1.06</v>
@@ -6782,10 +6782,10 @@
         <v>3.3</v>
       </c>
       <c r="M55">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="N55">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="O55">
         <v>1.4</v>
@@ -6809,10 +6809,10 @@
         <v>2.25</v>
       </c>
       <c r="V55">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="W55">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="X55">
         <v>1.82</v>
@@ -6865,13 +6865,13 @@
         <v>212</v>
       </c>
       <c r="F56">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="G56">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H56">
-        <v>5</v>
+        <v>4.71</v>
       </c>
       <c r="I56">
         <v>1.02</v>
@@ -6886,10 +6886,10 @@
         <v>5.7</v>
       </c>
       <c r="M56">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="N56">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="O56">
         <v>1.25</v>
@@ -6913,10 +6913,10 @@
         <v>2.4</v>
       </c>
       <c r="V56">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="W56">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="X56">
         <v>1.97</v>
@@ -6969,13 +6969,13 @@
         <v>213</v>
       </c>
       <c r="F57">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="G57">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="H57">
-        <v>4.45</v>
+        <v>5.38</v>
       </c>
       <c r="I57">
         <v>1.03</v>
@@ -6990,10 +6990,10 @@
         <v>4.68</v>
       </c>
       <c r="M57">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="N57">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="O57">
         <v>1.29</v>
@@ -7020,7 +7020,7 @@
         <v>1</v>
       </c>
       <c r="W57">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="X57">
         <v>1.43</v>
@@ -7073,13 +7073,13 @@
         <v>214</v>
       </c>
       <c r="F58">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="G58">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H58">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="I58">
         <v>1.07</v>
@@ -7121,10 +7121,10 @@
         <v>1.72</v>
       </c>
       <c r="V58">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="W58">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="X58">
         <v>1.37</v>
@@ -7177,13 +7177,13 @@
         <v>215</v>
       </c>
       <c r="F59">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="G59">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="H59">
-        <v>15.5</v>
+        <v>16.73</v>
       </c>
       <c r="I59">
         <v>1.02</v>
@@ -7198,10 +7198,10 @@
         <v>7.77</v>
       </c>
       <c r="M59">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="N59">
-        <v>3.32</v>
+        <v>3.47</v>
       </c>
       <c r="O59">
         <v>1.17</v>
@@ -7225,10 +7225,10 @@
         <v>6</v>
       </c>
       <c r="V59">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="X59">
         <v>2.82</v>
@@ -7281,13 +7281,13 @@
         <v>216</v>
       </c>
       <c r="F60">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="G60">
         <v>6.3</v>
       </c>
       <c r="H60">
-        <v>10.5</v>
+        <v>9.68</v>
       </c>
       <c r="I60">
         <v>1.01</v>
@@ -7302,10 +7302,10 @@
         <v>5.87</v>
       </c>
       <c r="M60">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="N60">
-        <v>2.51</v>
+        <v>2.7</v>
       </c>
       <c r="O60">
         <v>1.23</v>
@@ -7329,10 +7329,10 @@
         <v>4</v>
       </c>
       <c r="V60">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="W60">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="X60">
         <v>2.06</v>
@@ -7385,13 +7385,13 @@
         <v>217</v>
       </c>
       <c r="F61">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="G61">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="H61">
-        <v>3.35</v>
+        <v>3.92</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -7406,10 +7406,10 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="N61">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="O61">
         <v>0</v>
@@ -7433,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="V61">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="W61">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="X61">
         <v>1.56</v>
@@ -7489,13 +7489,13 @@
         <v>218</v>
       </c>
       <c r="F62">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="G62">
-        <v>2.89</v>
+        <v>2.75</v>
       </c>
       <c r="H62">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="I62">
         <v>1.11</v>
@@ -7504,16 +7504,16 @@
         <v>6</v>
       </c>
       <c r="K62">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="L62">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M62">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="N62">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="O62">
         <v>1.58</v>
@@ -7537,10 +7537,10 @@
         <v>1.57</v>
       </c>
       <c r="V62">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="W62">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="X62">
         <v>1.56</v>
@@ -7573,7 +7573,7 @@
         <v>2.85</v>
       </c>
       <c r="AH62">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="63" spans="1:34">
@@ -7593,13 +7593,13 @@
         <v>219</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G63">
-        <v>3.45</v>
+        <v>3.52</v>
       </c>
       <c r="H63">
-        <v>3.8</v>
+        <v>3.74</v>
       </c>
       <c r="I63">
         <v>1.06</v>
@@ -7614,10 +7614,10 @@
         <v>3.41</v>
       </c>
       <c r="M63">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="N63">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="O63">
         <v>1.44</v>
@@ -7641,10 +7641,10 @@
         <v>1.78</v>
       </c>
       <c r="V63">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="W63">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="X63">
         <v>1.53</v>
@@ -7697,13 +7697,13 @@
         <v>76</v>
       </c>
       <c r="F64">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="G64">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H64">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="I64">
         <v>1.03</v>
@@ -7718,10 +7718,10 @@
         <v>3.08</v>
       </c>
       <c r="M64">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="N64">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O64">
         <v>1.44</v>
@@ -7730,10 +7730,10 @@
         <v>2.63</v>
       </c>
       <c r="Q64">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R64">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S64">
         <v>1.11</v>
@@ -7760,13 +7760,13 @@
         <v>2.65</v>
       </c>
       <c r="AA64">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AB64">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="AC64">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="AD64">
         <v>1.41</v>
@@ -7781,7 +7781,7 @@
         <v>3.04</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="65" spans="1:34">
@@ -7801,13 +7801,13 @@
         <v>220</v>
       </c>
       <c r="F65">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="G65">
-        <v>3.45</v>
+        <v>3.72</v>
       </c>
       <c r="H65">
-        <v>3.65</v>
+        <v>4.14</v>
       </c>
       <c r="I65">
         <v>1.03</v>
@@ -7822,10 +7822,10 @@
         <v>3.3</v>
       </c>
       <c r="M65">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="N65">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O65">
         <v>1.4</v>
@@ -7849,10 +7849,10 @@
         <v>1.9</v>
       </c>
       <c r="V65">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="W65">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X65">
         <v>1.96</v>
@@ -7953,10 +7953,10 @@
         <v>2.15</v>
       </c>
       <c r="V66">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="W66">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="X66">
         <v>1.7</v>
@@ -8009,13 +8009,13 @@
         <v>222</v>
       </c>
       <c r="F67">
-        <v>2.71</v>
+        <v>2.62</v>
       </c>
       <c r="G67">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="H67">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="I67">
         <v>1.03</v>
@@ -8030,10 +8030,10 @@
         <v>4.2</v>
       </c>
       <c r="M67">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="N67">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O67">
         <v>1.33</v>
@@ -8057,10 +8057,10 @@
         <v>1.46</v>
       </c>
       <c r="V67">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W67">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="X67">
         <v>1.82</v>
@@ -8113,13 +8113,13 @@
         <v>223</v>
       </c>
       <c r="F68">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="G68">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="H68">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="I68">
         <v>1.01</v>
@@ -8137,7 +8137,7 @@
         <v>1.45</v>
       </c>
       <c r="N68">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="O68">
         <v>1.25</v>
@@ -8161,10 +8161,10 @@
         <v>4.1</v>
       </c>
       <c r="V68">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="W68">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X68">
         <v>2.2</v>
@@ -8265,10 +8265,10 @@
         <v>1.3</v>
       </c>
       <c r="V69">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="W69">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="X69">
         <v>2.1</v>
@@ -8425,13 +8425,13 @@
         <v>226</v>
       </c>
       <c r="F71">
-        <v>1.94</v>
+        <v>4.2</v>
       </c>
       <c r="G71">
-        <v>3.45</v>
+        <v>4.96</v>
       </c>
       <c r="H71">
-        <v>4.25</v>
+        <v>1.58</v>
       </c>
       <c r="I71">
         <v>1.06</v>
@@ -8446,10 +8446,10 @@
         <v>3.25</v>
       </c>
       <c r="M71">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="N71">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="O71">
         <v>1.4</v>
@@ -8529,13 +8529,13 @@
         <v>227</v>
       </c>
       <c r="F72">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G72">
-        <v>3.8</v>
+        <v>3.92</v>
       </c>
       <c r="H72">
-        <v>4.2</v>
+        <v>4.62</v>
       </c>
       <c r="I72">
         <v>1.02</v>
@@ -8633,13 +8633,13 @@
         <v>228</v>
       </c>
       <c r="F73">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G73">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="H73">
-        <v>4.45</v>
+        <v>4.8</v>
       </c>
       <c r="I73">
         <v>1.09</v>
@@ -8654,10 +8654,10 @@
         <v>2.35</v>
       </c>
       <c r="M73">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="N73">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O73">
         <v>1.53</v>
@@ -8737,13 +8737,13 @@
         <v>229</v>
       </c>
       <c r="F74">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="G74">
         <v>3.1</v>
       </c>
       <c r="H74">
-        <v>4.2</v>
+        <v>4.16</v>
       </c>
       <c r="I74">
         <v>1.12</v>
@@ -8752,16 +8752,16 @@
         <v>6</v>
       </c>
       <c r="K74">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="L74">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M74">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="N74">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="O74">
         <v>1.61</v>
@@ -8841,13 +8841,13 @@
         <v>230</v>
       </c>
       <c r="F75">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="G75">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="H75">
-        <v>2.87</v>
+        <v>2.71</v>
       </c>
       <c r="I75">
         <v>1.1</v>
@@ -8945,13 +8945,13 @@
         <v>231</v>
       </c>
       <c r="F76">
-        <v>3.7</v>
+        <v>3.44</v>
       </c>
       <c r="G76">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="H76">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="I76">
         <v>1.04</v>
@@ -9049,13 +9049,13 @@
         <v>232</v>
       </c>
       <c r="F77">
-        <v>2.69</v>
+        <v>2.85</v>
       </c>
       <c r="G77">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="H77">
-        <v>2.43</v>
+        <v>2.49</v>
       </c>
       <c r="I77">
         <v>1.05</v>
@@ -9070,10 +9070,10 @@
         <v>3.3</v>
       </c>
       <c r="M77">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="N77">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="O77">
         <v>1.4</v>
@@ -9153,13 +9153,13 @@
         <v>233</v>
       </c>
       <c r="F78">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="G78">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H78">
-        <v>2.76</v>
+        <v>3.04</v>
       </c>
       <c r="I78">
         <v>1.14</v>
@@ -9168,10 +9168,10 @@
         <v>6</v>
       </c>
       <c r="K78">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="L78">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="M78">
         <v>2.42</v>
@@ -9257,13 +9257,13 @@
         <v>234</v>
       </c>
       <c r="F79">
-        <v>2.03</v>
+        <v>2.14</v>
       </c>
       <c r="G79">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="H79">
-        <v>3.15</v>
+        <v>3.19</v>
       </c>
       <c r="I79">
         <v>1.02</v>
@@ -9382,10 +9382,10 @@
         <v>4.5</v>
       </c>
       <c r="M80">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="N80">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="O80">
         <v>1.29</v>
@@ -9424,28 +9424,28 @@
         <v>3.54</v>
       </c>
       <c r="AA80">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB80">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC80">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD80">
         <v>0</v>
       </c>
       <c r="AE80">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF80">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH80">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="81" spans="1:34">
@@ -9465,13 +9465,13 @@
         <v>236</v>
       </c>
       <c r="F81">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="G81">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="H81">
-        <v>2.86</v>
+        <v>2.81</v>
       </c>
       <c r="I81">
         <v>1.01</v>
@@ -9486,10 +9486,10 @@
         <v>3.54</v>
       </c>
       <c r="M81">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="N81">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O81">
         <v>1.36</v>
@@ -9572,10 +9572,10 @@
         <v>1.22</v>
       </c>
       <c r="G82">
-        <v>7.1</v>
+        <v>6.95</v>
       </c>
       <c r="H82">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I82">
         <v>1.01</v>
@@ -9590,10 +9590,10 @@
         <v>6</v>
       </c>
       <c r="M82">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="N82">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O82">
         <v>1.22</v>
@@ -9673,13 +9673,13 @@
         <v>238</v>
       </c>
       <c r="F83">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="G83">
-        <v>3.05</v>
+        <v>3.24</v>
       </c>
       <c r="H83">
-        <v>3.45</v>
+        <v>3.58</v>
       </c>
       <c r="I83">
         <v>1.11</v>
@@ -9694,10 +9694,10 @@
         <v>2.6</v>
       </c>
       <c r="M83">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="N83">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="O83">
         <v>1.54</v>
@@ -9777,13 +9777,13 @@
         <v>239</v>
       </c>
       <c r="F84">
-        <v>3.7</v>
+        <v>3.94</v>
       </c>
       <c r="G84">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H84">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="I84">
         <v>1.03</v>
@@ -10089,13 +10089,13 @@
         <v>242</v>
       </c>
       <c r="F87">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="G87">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="H87">
-        <v>1.87</v>
+        <v>2.45</v>
       </c>
       <c r="I87">
         <v>1.08</v>
@@ -10110,10 +10110,10 @@
         <v>2.75</v>
       </c>
       <c r="M87">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="N87">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="O87">
         <v>1.5</v>
@@ -10193,13 +10193,13 @@
         <v>243</v>
       </c>
       <c r="F88">
-        <v>6.3</v>
+        <v>6.65</v>
       </c>
       <c r="G88">
-        <v>4.5</v>
+        <v>4.52</v>
       </c>
       <c r="H88">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="I88">
         <v>1.03</v>
@@ -10217,7 +10217,7 @@
         <v>1.74</v>
       </c>
       <c r="N88">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="O88">
         <v>1.36</v>
@@ -10297,13 +10297,13 @@
         <v>244</v>
       </c>
       <c r="F89">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="G89">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="H89">
-        <v>3.34</v>
+        <v>3.15</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="N89">
         <v>1.6</v>
@@ -10505,13 +10505,13 @@
         <v>246</v>
       </c>
       <c r="F91">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="G91">
-        <v>3.94</v>
+        <v>3.7</v>
       </c>
       <c r="H91">
-        <v>4.52</v>
+        <v>4.08</v>
       </c>
       <c r="I91">
         <v>1.04</v>
@@ -10526,10 +10526,10 @@
         <v>3.6</v>
       </c>
       <c r="M91">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="N91">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="O91">
         <v>1.37</v>
@@ -10713,13 +10713,13 @@
         <v>248</v>
       </c>
       <c r="F93">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="G93">
-        <v>4.55</v>
+        <v>4.8</v>
       </c>
       <c r="H93">
-        <v>7.15</v>
+        <v>6.83</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -10737,7 +10737,7 @@
         <v>1.61</v>
       </c>
       <c r="N93">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="O93">
         <v>0</v>
